--- a/data/trans_bre/P18_4_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P18_4_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,19</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,21</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,56</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>368,46%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>68,24%</t>
+          <t>65,64%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>131,0%</t>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-34,59%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 20,48</t>
+          <t>-18,14; 21,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 14,55</t>
+          <t>-8,7; 10,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 15,86</t>
+          <t>-16,09; 14,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 31,09</t>
+          <t>-16,52; 6,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-31,04; 153,19</t>
+          <t>-14,7; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>-62,01; 251,02</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-42,68; 370,23</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-55,58; —</t>
+          <t>-80,51; 382,41</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,7</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>2,82</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,17</t>
+          <t>-12,85</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,4</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-10,15%</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>-7,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-39,33%</t>
+          <t>73,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-38,89%</t>
+          <t>-53,0%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>8,66%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,62%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 12,44</t>
+          <t>-30,44; 17,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 5,75</t>
+          <t>-6,23; 11,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 5,4</t>
+          <t>-50,7; 5,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 4,43</t>
+          <t>-10,38; 12,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,72; 75,61</t>
+          <t>-6,64; 6,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
+          <t>-71,4; 141,24</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-90,54; 98,83</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-90,16; 177,94</t>
+          <t>-95,96; 80,52</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-84,45; 477,79</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,95</t>
+          <t>-17,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,98</t>
+          <t>-3,15</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>5,47</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-37,69%</t>
+          <t>-3,82</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-55,78%</t>
+          <t>-54,17%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,42%</t>
+          <t>-28,43%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-17,03%</t>
+          <t>103,16%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-1,54%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-39,11%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-21,17; 0,58</t>
+          <t>-32,64; -4,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 0,81</t>
+          <t>-13,17; 6,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,92; 8,91</t>
+          <t>-3,72; 13,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 6,05</t>
+          <t>-10,81; 7,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-63,5; 6,44</t>
+          <t>-14,81; 4,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-85,24; 34,35</t>
+          <t>-77,76; -15,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-67,63; 250,08</t>
+          <t>-76,82; 137,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-70,84; 104,09</t>
+          <t>-43,47; 751,65</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-67,97; 239,61</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-88,55; 137,67</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,56</t>
+          <t>13,53</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,42</t>
+          <t>5,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,92</t>
+          <t>11,21</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>5,14</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>28,98%</t>
+          <t>10,53</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>44,1%</t>
+          <t>75,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>148,63%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>65,69%</t>
+          <t>123,48%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>61,04%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>166,53%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,52 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 17,1</t>
+          <t>1,38; 26,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 9,94</t>
+          <t>-3,34; 13,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 18,58</t>
+          <t>1,55; 20,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 12,23</t>
+          <t>-4,52; 15,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-15,28; 94,77</t>
+          <t>2,46; 20,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,38; 219,6</t>
+          <t>4,95; 223,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,98; 442,43</t>
+          <t>-36,16; 500,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 263,91</t>
+          <t>1,58; 475,32</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-37,64; 338,35</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8,58; 710,69</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1116,52 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,31</t>
+          <t>8,35</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>4,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-12,23%</t>
+          <t>18,96%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>61,73%</t>
+          <t>-17,29%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,06%</t>
+          <t>62,9%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-16,44%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33,67%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1174,52 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 13,69</t>
+          <t>-9,05; 25,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 6,85</t>
+          <t>-13,95; 10,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 16,94</t>
+          <t>-5,1; 22,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 10,62</t>
+          <t>-15,42; 11,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-34,52; 69,52</t>
+          <t>-9,45; 20,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-65,37; 128,03</t>
+          <t>-28,56; 139,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 223,82</t>
+          <t>-82,22; 163,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-43,47; 110,42</t>
+          <t>-34,28; 313,83</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-66,52; 113,16</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-55,53; 275,97</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1236,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,9</t>
+          <t>14,44</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>17,28</t>
+          <t>14,07</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>13,39</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,84</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>46,29%</t>
+          <t>10,45</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>210,6%</t>
+          <t>51,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>119,91%</t>
+          <t>246,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>140,06%</t>
+          <t>555,04%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>63,59%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>305,87%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1294,52 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,48; 32,43</t>
+          <t>-8,23; 33,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,02; 29,73</t>
+          <t>-0,81; 27,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 18,75</t>
+          <t>1,77; 25,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 25,26</t>
+          <t>-8,84; 21,83</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,57; 125,61</t>
+          <t>-1,42; 24,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,12; 695,64</t>
+          <t>-23,2; 191,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,4; 581,22</t>
+          <t>-33,82; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-23,55; 607,25</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-58,83; 593,72</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1356,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,08</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,54</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>3,46</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,82%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>45,72%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>29,46%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>11,11%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>53,3%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1414,59 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,3; 7,36</t>
+          <t>-6,98; 8,3</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,34</t>
+          <t>-1,55; 7,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 8,55</t>
+          <t>-6,37; 8,53</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 8,34</t>
+          <t>-4,03; 5,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,57; 31,8</t>
+          <t>-1,44; 7,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 85,39</t>
+          <t>-22,69; 38,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 116,65</t>
+          <t>-16,3; 143,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 111,44</t>
+          <t>-36,88; 102,91</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-29,82; 78,69</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-16,65; 170,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1312,10 +1475,10 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
